--- a/mbs-perturbation/mega/svm/smote/mega-svm-default-smote-results.xlsx
+++ b/mbs-perturbation/mega/svm/smote/mega-svm-default-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5254237288135594</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6444906444906445</v>
+        <v>0.7165354330708661</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6268499248468031</v>
+        <v>0.8903775002890507</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.782312925170068</v>
+        <v>0.9435483870967742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6182795698924731</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.7548387096774193</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7302578332755232</v>
+        <v>0.7999190657879524</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.84375</v>
+        <v>0.8982035928143712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7258064516129032</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7803468208092486</v>
+        <v>0.8498583569405099</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8775436466643542</v>
+        <v>0.8763440860215052</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.6741071428571429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.8118279569892473</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8876080691642653</v>
+        <v>0.7365853658536584</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9069747166521359</v>
+        <v>0.7273176402208661</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9830508474576272</v>
+        <v>0.9865771812080537</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6270270270270271</v>
+        <v>0.7945945945945946</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7656765676567657</v>
+        <v>0.8802395209580838</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9076431269979657</v>
+        <v>0.8633827375762861</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8182118481143379</v>
+        <v>0.8135307390561379</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7264806742226098</v>
+        <v>0.8040802092414996</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7537625585623229</v>
+        <v>0.7876114773001075</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8098538496873564</v>
+        <v>0.831468205979132</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/smote/mega-svm-default-smote-results.xlsx
+++ b/mbs-perturbation/mega/svm/smote/mega-svm-default-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.5823293172690763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.978494623655914</v>
+        <v>0.8579881656804734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7165354330708661</v>
+        <v>0.6937799043062202</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8903775002890507</v>
+        <v>0.7901333986905221</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9435483870967742</v>
+        <v>0.6887755102040817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.7988165680473372</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7548387096774193</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7999190657879524</v>
+        <v>0.8070095584888484</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8982035928143712</v>
+        <v>0.9402985074626866</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8498583569405099</v>
+        <v>0.8316831683168318</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8763440860215052</v>
+        <v>0.9242323448058541</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6741071428571429</v>
+        <v>0.9161290322580645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8118279569892473</v>
+        <v>0.8402366863905325</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7365853658536584</v>
+        <v>0.8765432098765431</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7273176402208661</v>
+        <v>0.9246875109414937</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9865771812080537</v>
+        <v>0.9925373134328358</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7945945945945946</v>
+        <v>0.7869822485207101</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8802395209580838</v>
+        <v>0.8778877887788779</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8633827375762861</v>
+        <v>0.984909491964567</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8135307390561379</v>
+        <v>0.824013936125349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8040802092414996</v>
+        <v>0.8059171597633137</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7876114773001075</v>
+        <v>0.8039240197351466</v>
       </c>
       <c r="E7" t="n">
-        <v>0.831468205979132</v>
+        <v>0.886194460978257</v>
       </c>
     </row>
   </sheetData>
